--- a/media/generated_table.xlsx
+++ b/media/generated_table.xlsx
@@ -133,7 +133,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1562100" cy="1562100"/>
+    <ext cx="1562100" cy="1171575"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -141,31 +141,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>3</col>
-      <colOff>0</colOff>
-      <row>2</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1562100" cy="1562100"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -468,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,34 +476,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Лавки</t>
+          <t>test_2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Л-030</t>
+          <t>test_6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2000х500х500 мм</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Урны</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>у-14 н</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>450х450х800 мм</t>
+          <t>1x1x1 мм</t>
         </is>
       </c>
     </row>
